--- a/BUMMO/01. 자료/01. 족보/02. 수학(하)/02. 기말/문제분류.xlsx
+++ b/BUMMO/01. 자료/01. 족보/02. 수학(하)/02. 기말/문제분류.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="HCell" lastEdited="11.0" lowestEdited="11.0" rupBuild="0.6506"/>
+  <x:fileVersion appName="HCell" lastEdited="11.0" lowestEdited="11.0" rupBuild="0.6558"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
@@ -19,78 +19,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="24">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="24">
   <x:si>
     <x:t>3 -&gt; 유형서 심화예제(킬러, 준킬러)</x:t>
   </x:si>
   <x:si>
-    <x:t>함수의 정의</x:t>
+    <x:t>단원</x:t>
   </x:si>
   <x:si>
-    <x:t>합성함수</x:t>
+    <x:t>연도</x:t>
   </x:si>
   <x:si>
-    <x:t>단원구분</x:t>
+    <x:t>학교</x:t>
   </x:si>
   <x:si>
-    <x:t>여러가지 함수</x:t>
+    <x:t>무리식</x:t>
   </x:si>
   <x:si>
-    <x:t>무리함수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유리함수</x:t>
+    <x:t>순열</x:t>
   </x:si>
   <x:si>
     <x:t>역함수</x:t>
   </x:si>
   <x:si>
-    <x:t>고림고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무리식</x:t>
-  </x:si>
-  <x:si>
     <x:t>난이도</x:t>
   </x:si>
   <x:si>
-    <x:t>단원</x:t>
+    <x:t>용인고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포곡고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조합</x:t>
   </x:si>
   <x:si>
     <x:t>유리식</x:t>
   </x:si>
   <x:si>
-    <x:t>연도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조합</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포곡고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학교</x:t>
-  </x:si>
-  <x:si>
     <x:t>번호</x:t>
   </x:si>
   <x:si>
-    <x:t>순열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>용인고</x:t>
+    <x:t>고림고</x:t>
   </x:si>
   <x:si>
     <x:t>태성고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경우의수(합곱법칙)</x:t>
   </x:si>
   <x:si>
     <x:t>2 -&gt; 유형서 일반예제</x:t>
   </x:si>
   <x:si>
     <x:t>1 -&gt; 교과서 기본예제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경우의수(합곱법칙)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유리함수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>합성함수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무리함수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>함수의 정의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여러가지 함수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단원구분</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -901,10 +901,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:G85"/>
+  <x:dimension ref="A1:G103"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E85" activeCellId="0" sqref="E85:E85"/>
+    <x:sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="D87" activeCellId="0" sqref="D87:D87"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -919,19 +919,19 @@
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1" s="3"/>
       <x:c r="G1" s="2"/>
@@ -939,7 +939,7 @@
     <x:row r="2" spans="6:7">
       <x:c r="F2" s="3"/>
       <x:c r="G2" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7">
@@ -947,10 +947,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D3" s="1">
         <x:v>1</x:v>
@@ -960,7 +960,7 @@
       </x:c>
       <x:c r="F3" s="3"/>
       <x:c r="G3" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
@@ -968,10 +968,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D4" s="1">
         <x:v>2</x:v>
@@ -981,7 +981,7 @@
       </x:c>
       <x:c r="F4" s="3"/>
       <x:c r="G4" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
@@ -989,10 +989,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D5" s="1">
         <x:v>3</x:v>
@@ -1002,7 +1002,7 @@
       </x:c>
       <x:c r="F5" s="3"/>
       <x:c r="G5" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
@@ -1010,10 +1010,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D6" s="1">
         <x:v>4</x:v>
@@ -1023,7 +1023,7 @@
       </x:c>
       <x:c r="F6" s="3"/>
       <x:c r="G6" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
@@ -1031,10 +1031,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D7" s="1">
         <x:v>5</x:v>
@@ -1044,7 +1044,7 @@
       </x:c>
       <x:c r="F7" s="3"/>
       <x:c r="G7" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
@@ -1052,10 +1052,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D8" s="1">
         <x:v>6</x:v>
@@ -1065,7 +1065,7 @@
       </x:c>
       <x:c r="F8" s="3"/>
       <x:c r="G8" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
@@ -1073,10 +1073,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D9" s="1">
         <x:v>7</x:v>
@@ -1086,7 +1086,7 @@
       </x:c>
       <x:c r="F9" s="3"/>
       <x:c r="G9" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
@@ -1094,10 +1094,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D10" s="1">
         <x:v>8</x:v>
@@ -1107,7 +1107,7 @@
       </x:c>
       <x:c r="F10" s="3"/>
       <x:c r="G10" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
@@ -1115,10 +1115,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D11" s="1">
         <x:v>9</x:v>
@@ -1128,7 +1128,7 @@
       </x:c>
       <x:c r="F11" s="3"/>
       <x:c r="G11" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
@@ -1136,10 +1136,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D12" s="1">
         <x:v>10</x:v>
@@ -1149,7 +1149,7 @@
       </x:c>
       <x:c r="F12" s="3"/>
       <x:c r="G12" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
@@ -1157,10 +1157,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D13" s="1">
         <x:v>11</x:v>
@@ -1170,7 +1170,7 @@
       </x:c>
       <x:c r="F13" s="3"/>
       <x:c r="G13" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
@@ -1178,10 +1178,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D14" s="1">
         <x:v>12</x:v>
@@ -1197,10 +1197,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D15" s="1">
         <x:v>13</x:v>
@@ -1210,7 +1210,7 @@
       </x:c>
       <x:c r="F15" s="3"/>
       <x:c r="G15" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7">
@@ -1218,10 +1218,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D16" s="1">
         <x:v>14</x:v>
@@ -1231,7 +1231,7 @@
       </x:c>
       <x:c r="F16" s="3"/>
       <x:c r="G16" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7">
@@ -1239,10 +1239,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B17" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D17" s="1">
         <x:v>15</x:v>
@@ -1252,7 +1252,7 @@
       </x:c>
       <x:c r="F17" s="3"/>
       <x:c r="G17" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7">
@@ -1260,10 +1260,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D18" s="1">
         <x:v>16</x:v>
@@ -1281,10 +1281,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B19" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D19" s="1">
         <x:v>17</x:v>
@@ -1298,10 +1298,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B20" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D20" s="1">
         <x:v>18</x:v>
@@ -1315,10 +1315,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B21" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D21" s="1">
         <x:v>19</x:v>
@@ -1332,10 +1332,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B23" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D23" s="1">
         <x:v>1</x:v>
@@ -1349,10 +1349,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B24" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D24" s="1">
         <x:v>2</x:v>
@@ -1366,10 +1366,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B25" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C25" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D25" s="1">
         <x:v>3</x:v>
@@ -1383,10 +1383,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B26" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C26" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D26" s="1">
         <x:v>4</x:v>
@@ -1400,10 +1400,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B27" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C27" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D27" s="1">
         <x:v>5</x:v>
@@ -1417,10 +1417,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B28" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C28" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D28" s="1">
         <x:v>6</x:v>
@@ -1434,10 +1434,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B29" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C29" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D29" s="1">
         <x:v>7</x:v>
@@ -1451,10 +1451,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B30" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D30" s="1">
         <x:v>8</x:v>
@@ -1468,10 +1468,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B31" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D31" s="1">
         <x:v>9</x:v>
@@ -1485,10 +1485,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B32" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D32" s="1">
         <x:v>10</x:v>
@@ -1502,10 +1502,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B33" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C33" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D33" s="1">
         <x:v>11</x:v>
@@ -1519,10 +1519,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B34" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C34" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D34" s="1">
         <x:v>12</x:v>
@@ -1536,10 +1536,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B35" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C35" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D35" s="1">
         <x:v>13</x:v>
@@ -1553,10 +1553,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B36" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D36" s="1">
         <x:v>14</x:v>
@@ -1570,10 +1570,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B37" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C37" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D37" s="1">
         <x:v>15</x:v>
@@ -1587,10 +1587,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B38" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D38" s="1">
         <x:v>16</x:v>
@@ -1604,10 +1604,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B39" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D39" s="1">
         <x:v>17</x:v>
@@ -1621,10 +1621,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B40" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C40" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D40" s="1">
         <x:v>18</x:v>
@@ -1635,22 +1635,22 @@
     </x:row>
     <x:row r="46" spans="1:7">
       <x:c r="A46" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B46" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D46" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E46" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G46" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:7">
@@ -1658,10 +1658,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B47" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C47" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D47" s="1">
         <x:v>1</x:v>
@@ -1670,7 +1670,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G47" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:7">
@@ -1678,10 +1678,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B48" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D48" s="1">
         <x:v>2</x:v>
@@ -1690,7 +1690,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G48" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:7">
@@ -1698,10 +1698,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B49" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D49" s="1">
         <x:v>3</x:v>
@@ -1710,7 +1710,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G49" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:7">
@@ -1718,10 +1718,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B50" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C50" s="1" t="s">
         <x:v>20</x:v>
-      </x:c>
-      <x:c r="C50" s="1" t="s">
-        <x:v>5</x:v>
       </x:c>
       <x:c r="D50" s="1">
         <x:v>4</x:v>
@@ -1730,7 +1730,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G50" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:7">
@@ -1738,10 +1738,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B51" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D51" s="1">
         <x:v>5</x:v>
@@ -1750,7 +1750,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G51" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:7">
@@ -1758,10 +1758,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B52" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C52" s="1" t="s">
         <x:v>20</x:v>
-      </x:c>
-      <x:c r="C52" s="1" t="s">
-        <x:v>5</x:v>
       </x:c>
       <x:c r="D52" s="1">
         <x:v>6</x:v>
@@ -1770,7 +1770,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G52" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:7">
@@ -1778,10 +1778,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B53" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D53" s="1">
         <x:v>7</x:v>
@@ -1790,7 +1790,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G53" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:7">
@@ -1798,10 +1798,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B54" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D54" s="1">
         <x:v>8</x:v>
@@ -1810,7 +1810,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G54" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:7">
@@ -1818,10 +1818,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B55" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C55" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D55" s="1">
         <x:v>9</x:v>
@@ -1830,7 +1830,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G55" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:7">
@@ -1838,10 +1838,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B56" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C56" s="1" t="s">
         <x:v>20</x:v>
-      </x:c>
-      <x:c r="C56" s="1" t="s">
-        <x:v>5</x:v>
       </x:c>
       <x:c r="D56" s="1">
         <x:v>10</x:v>
@@ -1850,7 +1850,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G56" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:7">
@@ -1858,10 +1858,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B57" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D57" s="1">
         <x:v>11</x:v>
@@ -1870,7 +1870,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G57" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:7">
@@ -1878,10 +1878,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B58" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D58" s="1">
         <x:v>12</x:v>
@@ -1896,10 +1896,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B59" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D59" s="1">
         <x:v>13</x:v>
@@ -1908,7 +1908,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G59" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:7">
@@ -1916,10 +1916,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B60" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D60" s="1">
         <x:v>14</x:v>
@@ -1928,7 +1928,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G60" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:7">
@@ -1936,10 +1936,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B61" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D61" s="1">
         <x:v>15</x:v>
@@ -1948,7 +1948,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G61" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:7">
@@ -1956,10 +1956,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B62" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D62" s="1">
         <x:v>16</x:v>
@@ -1976,10 +1976,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B63" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C63" s="1" t="s">
         <x:v>20</x:v>
-      </x:c>
-      <x:c r="C63" s="1" t="s">
-        <x:v>5</x:v>
       </x:c>
       <x:c r="D63" s="1">
         <x:v>17</x:v>
@@ -1993,10 +1993,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B64" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C64" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D64" s="1">
         <x:v>18</x:v>
@@ -2007,7 +2007,7 @@
     </x:row>
     <x:row r="65" spans="7:7">
       <x:c r="G65" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:7">
@@ -2015,10 +2015,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B66" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C66" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D66" s="1">
         <x:v>1</x:v>
@@ -2027,7 +2027,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G66" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:7">
@@ -2035,10 +2035,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B67" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C67" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D67" s="1">
         <x:v>2</x:v>
@@ -2047,7 +2047,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G67" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:7">
@@ -2055,10 +2055,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B68" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C68" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D68" s="1">
         <x:v>3</x:v>
@@ -2067,7 +2067,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G68" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:7">
@@ -2075,10 +2075,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B69" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C69" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D69" s="1">
         <x:v>4</x:v>
@@ -2087,7 +2087,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G69" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:7">
@@ -2095,10 +2095,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B70" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C70" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D70" s="1">
         <x:v>5</x:v>
@@ -2107,7 +2107,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G70" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:7">
@@ -2115,10 +2115,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B71" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C71" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D71" s="1">
         <x:v>6</x:v>
@@ -2127,7 +2127,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G71" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:7">
@@ -2135,10 +2135,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B72" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C72" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D72" s="1">
         <x:v>7</x:v>
@@ -2147,7 +2147,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G72" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:7">
@@ -2155,10 +2155,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B73" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C73" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D73" s="1">
         <x:v>8</x:v>
@@ -2167,7 +2167,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G73" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:7">
@@ -2175,10 +2175,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B74" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C74" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D74" s="1">
         <x:v>9</x:v>
@@ -2187,7 +2187,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G74" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:7">
@@ -2195,10 +2195,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B75" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C75" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D75" s="1">
         <x:v>10</x:v>
@@ -2207,7 +2207,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G75" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:7">
@@ -2215,10 +2215,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B76" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C76" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D76" s="1">
         <x:v>11</x:v>
@@ -2227,7 +2227,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G76" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:7">
@@ -2235,10 +2235,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B77" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C77" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D77" s="1">
         <x:v>12</x:v>
@@ -2253,10 +2253,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B78" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C78" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D78" s="1">
         <x:v>13</x:v>
@@ -2265,7 +2265,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G78" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:7">
@@ -2273,10 +2273,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B79" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C79" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D79" s="1">
         <x:v>14</x:v>
@@ -2285,7 +2285,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G79" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:7">
@@ -2293,10 +2293,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B80" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C80" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D80" s="1">
         <x:v>15</x:v>
@@ -2305,7 +2305,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G80" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:7">
@@ -2313,10 +2313,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B81" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C81" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D81" s="1">
         <x:v>16</x:v>
@@ -2333,10 +2333,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B82" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C82" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D82" s="1">
         <x:v>17</x:v>
@@ -2350,10 +2350,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B83" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C83" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D83" s="1">
         <x:v>18</x:v>
@@ -2367,10 +2367,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B84" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C84" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D84" s="1">
         <x:v>19</x:v>
@@ -2384,10 +2384,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B85" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C85" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D85" s="1">
         <x:v>20</x:v>
@@ -2396,9 +2396,101 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
+    <x:row r="87" spans="1:7">
+      <x:c r="A87" s="1">
+        <x:v>2019</x:v>
+      </x:c>
+      <x:c r="B87" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D87" s="1">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G87" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="7:7">
+      <x:c r="G88" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="7:7">
+      <x:c r="G89" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="7:7">
+      <x:c r="G90" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="7:7">
+      <x:c r="G91" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="7:7">
+      <x:c r="G92" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="7:7">
+      <x:c r="G93" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="7:7">
+      <x:c r="G94" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="7:7">
+      <x:c r="G95" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="7:7">
+      <x:c r="G96" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="7:7">
+      <x:c r="G97" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="7:7">
+      <x:c r="G98" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="7:7">
+      <x:c r="G99" s="2"/>
+    </x:row>
+    <x:row r="100" spans="7:7">
+      <x:c r="G100" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="7:7">
+      <x:c r="G101" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="7:7">
+      <x:c r="G102" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="7:7">
+      <x:c r="G103" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:sortState columnSort="0" caseSensitive="0" ref="A3:E21"/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>